--- a/TaxInvoice.xlsx
+++ b/TaxInvoice.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="TaxInvoice" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Bugreport" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Created By:-</t>
   </si>
@@ -114,9 +115,6 @@
     <t>A Dealer Tax Invoice report of the selected month should get downloaded.</t>
   </si>
   <si>
-    <t>To verify if the dealer is able to download the Dealer Tax invoice for last three months if the date of downloading the report lies in 16th to 31 of the month.</t>
-  </si>
-  <si>
     <t>To verify if the dealer is able to download the Dealer Tax invoice for last three months if the date of downloading the report lies in 1st to 15th of the month.</t>
   </si>
   <si>
@@ -129,9 +127,6 @@
     <t>To verify if the Same report is getting downloaded in all the dealers login or not.</t>
   </si>
   <si>
-    <t>Same report for dealer tax invoice should get download in all the three dealers login.</t>
-  </si>
-  <si>
     <t>TC_TaxInvoice_01</t>
   </si>
   <si>
@@ -184,20 +179,6 @@
   </si>
   <si>
     <t>there is no data in the reports downloaded</t>
-  </si>
-  <si>
-    <t>Observing and matching data with master</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Service.Advisor1
-Welcome@1234                           2.Service.Advisor3                                 Welcome@11                    
-</t>
-  </si>
-  <si>
-    <t>bhavya-1234                                             Welcome@12</t>
   </si>
   <si>
     <t>Date of downloading the report is 16rd December.                        
@@ -205,9 +186,6 @@
 Welcome@33</t>
   </si>
   <si>
-    <t>Date of downloading the report is 16th December.</t>
-  </si>
-  <si>
     <t>TC_TaxInvoice_07</t>
   </si>
   <si>
@@ -268,7 +246,114 @@
     <t>1) Click on SP - Sales.                         2)Click on Tax Invoice button.                                                    3) Clickon the month you wish to download the report for.</t>
   </si>
   <si>
-    <t>1) Click on SP - Sales.                         2)Click on Tax Invoice button.                                                    3) Clickon the month you wish to download the report.                        4) Repeat above steps for all the dealers.</t>
+    <t>To verify if the dealer is able to download the Dealer Tax invoice for last three months if the date of downloading the report lies in 07th to 31 of the month.</t>
+  </si>
+  <si>
+    <t>Date of downloading the report is 7th of jan.</t>
+  </si>
+  <si>
+    <t>There is no agreement puched but still data is updating in report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click on SP - Sales.                         2)Click on Tax Invoice button.                                                    3) Clickon the month you wish to download the report for november, september , october                       </t>
+  </si>
+  <si>
+    <t>Same report for dealer tax invoice should get download and amount should be total amount of dealer margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.216044-Ashwin
+Welcome@33  
+2.Service.Advisor1
+Welcome@33                       </t>
+  </si>
+  <si>
+    <t>There is no agreement puched in november but still showing the Amount in generated invoice and also same amount is showing for both the dealers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same ammount is showing for both the dealer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.216069-Ravi
+Welcome@33                        2.Service.Advisor3                                 Welcome@33                   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Report </t>
+  </si>
+  <si>
+    <t>Project :-</t>
+  </si>
+  <si>
+    <t>Created_By :-</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Bug Summary</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Attachments/link</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Developers Comments</t>
+  </si>
+  <si>
+    <t>Dealer is already logged in and on generated report page</t>
+  </si>
+  <si>
+    <t>1.Login with admin and download the invoice for the month of NOV, OCT,SEP 
+2.Observing and matching data with master</t>
+  </si>
+  <si>
+    <t>User name-admin
+Pwd-Welcome@123</t>
+  </si>
+  <si>
+    <t>Admin is already logged in.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Bug ID_1</t>
+  </si>
+  <si>
+    <t>Bug ID_2</t>
+  </si>
+  <si>
+    <t>Bug ID_3</t>
+  </si>
+  <si>
+    <t>Bug ID_4</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>URL-http://13.127.10.134/bosch_dev/index.php
+bhavya-123                                            Welcome@33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same amount is showing for both the dealer </t>
   </si>
 </sst>
 </file>
@@ -276,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +432,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +520,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECECEC"/>
+        <bgColor rgb="FFECECEC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -439,83 +592,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,434 +1016,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43937</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="21">
         <v>13292</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C9" s="12">
         <v>44181</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="21">
         <v>13292</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C11" s="12">
         <v>44181</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="21">
+        <v>13292</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44181</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="B14" s="21">
         <v>13292</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C14" s="12">
         <v>44181</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C9" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C10" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C11" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C12" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="F14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C13" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="27">
-        <v>13292</v>
-      </c>
-      <c r="C14" s="14">
-        <v>44181</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
@@ -1270,92 +1468,386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="32" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>44203</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="42">
+        <v>13445</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>44203</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="42">
+        <v>13445</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>44203</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="42">
+        <v>13445</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>44203</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="42">
+        <v>13445</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13">
+      <c r="C4" s="8">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>

--- a/TaxInvoice.xlsx
+++ b/TaxInvoice.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TaxInvoice" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugreport" sheetId="3" r:id="rId2"/>
-    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="TaxInvoice(UAT)" sheetId="4" r:id="rId2"/>
+    <sheet name="Bugreport" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="110">
   <si>
     <t>Created By:-</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Dealer is already logged in.</t>
   </si>
   <si>
-    <t>A Dealer Tax Invoice report of the selected month should get downloaded.</t>
-  </si>
-  <si>
     <t>To verify if the dealer is able to download the Dealer Tax invoice for last three months if the date of downloading the report lies in 1st to 15th of the month.</t>
   </si>
   <si>
@@ -163,9 +161,6 @@
     <t>To verify if the downloaded report has the correct dealer margin as per the master</t>
   </si>
   <si>
-    <t>Calculation should be perfect after downloading the report</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dealer Margin should be perfect after downloading the report as per the master </t>
   </si>
   <si>
@@ -173,9 +168,6 @@
   </si>
   <si>
     <t>To verify if the Same report is getting downloaded with different ammount of dealer margin</t>
-  </si>
-  <si>
-    <t>there is no data in the reports downloaded from other two dealers.</t>
   </si>
   <si>
     <t>there is no data in the reports downloaded</t>
@@ -270,9 +262,6 @@
     <t>There is no agreement puched in november but still showing the Amount in generated invoice and also same amount is showing for both the dealers</t>
   </si>
   <si>
-    <t xml:space="preserve">Same ammount is showing for both the dealer </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.216069-Ravi
 Welcome@33                        2.Service.Advisor3                                 Welcome@33                   
 </t>
@@ -331,9 +320,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>Bug ID_1</t>
   </si>
   <si>
@@ -354,6 +340,35 @@
   </si>
   <si>
     <t xml:space="preserve">Same amount is showing for both the dealer </t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Retesting status</t>
+  </si>
+  <si>
+    <t>Retesting Date</t>
+  </si>
+  <si>
+    <t>Calculation should be perfect after downloading the report
+Note:Total of dealer margin for the november month</t>
+  </si>
+  <si>
+    <t>Amount is showning the addition of dealer margin for the selected month</t>
+  </si>
+  <si>
+    <t>A Dealer Tax Invoice report of the selected month should get downloaded with zero amount</t>
+  </si>
+  <si>
+    <t>URL-https://boschuat.innov.co.in/index.php?module=Reports&amp;view=List
+bhavya-123                                            Welcome@33</t>
+  </si>
+  <si>
+    <t>Bosch(UAT)</t>
   </si>
 </sst>
 </file>
@@ -592,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,6 +656,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,9 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,6 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,40 +1029,44 @@
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="16" t="s">
         <v>2</v>
       </c>
@@ -1054,97 +1074,109 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="23"/>
       <c r="I4" s="16"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="N5" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="22">
         <v>13292</v>
       </c>
       <c r="C6" s="12">
@@ -1154,13 +1186,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>23</v>
@@ -1169,17 +1201,27 @@
       <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M6" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="N6" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="22">
         <v>13292</v>
       </c>
       <c r="C7" s="12">
@@ -1192,265 +1234,345 @@
         <v>27</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>74</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H7" s="40"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M7" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="21">
+        <v>98</v>
+      </c>
+      <c r="N7" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="22">
         <v>13292</v>
       </c>
       <c r="C8" s="12">
         <v>44181</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M8" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="21">
+        <v>52</v>
+      </c>
+      <c r="N8" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="22">
         <v>13292</v>
       </c>
       <c r="C9" s="12">
         <v>44181</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M9" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="N9" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="22">
         <v>13292</v>
       </c>
       <c r="C10" s="12">
         <v>44181</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M10" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="21">
+        <v>52</v>
+      </c>
+      <c r="N10" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="22">
         <v>13292</v>
       </c>
       <c r="C11" s="12">
         <v>44181</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M11" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="21">
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="22">
         <v>13292</v>
       </c>
       <c r="C12" s="12">
         <v>44181</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M12" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="21">
+        <v>98</v>
+      </c>
+      <c r="N12" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="22">
         <v>13292</v>
       </c>
       <c r="C13" s="12">
         <v>44181</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M13" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="21">
+        <v>98</v>
+      </c>
+      <c r="N13" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="22">
         <v>13292</v>
       </c>
       <c r="C14" s="12">
         <v>44181</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="M14" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N14" s="42">
+        <v>80728</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1468,10 +1590,533 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44205</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="285" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+    </row>
+    <row r="11" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="22">
+        <v>13292</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44205</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +2135,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="32" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1509,11 +2154,11 @@
     </row>
     <row r="2" spans="1:15" s="32" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -1530,11 +2175,11 @@
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -1551,31 +2196,31 @@
     </row>
     <row r="4" spans="1:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>88</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>18</v>
@@ -1587,164 +2232,164 @@
         <v>20</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="42">
         <v>44203</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="42">
+      <c r="B5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="43">
         <v>13445</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>44203</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="43">
+        <v>13445</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>44203</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="43">
+        <v>13445</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>44203</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
-        <v>44203</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="D8" s="43">
+        <v>13445</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="42">
-        <v>13445</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
-        <v>44203</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="42">
-        <v>13445</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>44203</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="42">
-        <v>13445</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1756,12 +2401,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,48 +2417,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8">
         <v>9</v>
@@ -1822,10 +2467,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -1833,7 +2478,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
@@ -1842,10 +2487,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
